--- a/genshin/546453851622116914_2021-07-12_14-00-02.xlsx
+++ b/genshin/546453851622116914_2021-07-12_14-00-02.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -2712,7 +2712,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -4803,7 +4803,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -5746,7 +5746,7 @@
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
@@ -6992,7 +6992,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7063,7 +7063,7 @@
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K92" t="inlineStr">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7252,7 +7252,7 @@
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K95" t="inlineStr">
@@ -7315,7 +7315,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
@@ -7596,7 +7596,7 @@
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K100" t="inlineStr">
@@ -8319,7 +8319,7 @@
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
@@ -9220,7 +9220,7 @@
       </c>
       <c r="J122" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K122" t="inlineStr">
@@ -9287,7 +9287,7 @@
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K123" t="inlineStr">
@@ -9701,7 +9701,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10492,7 +10492,7 @@
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K140" t="inlineStr">
@@ -10563,7 +10563,7 @@
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K153" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K156" t="inlineStr">
@@ -11705,7 +11705,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K161" t="inlineStr">
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="I164" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
@@ -12468,7 +12468,7 @@
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K168" t="inlineStr">
@@ -12748,7 +12748,7 @@
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K172" t="inlineStr">
@@ -13338,7 +13338,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13630,7 +13630,7 @@
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K184" t="inlineStr">
@@ -13693,7 +13693,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -13894,7 +13894,7 @@
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K188" t="inlineStr">
@@ -14110,7 +14110,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -14331,7 +14331,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -14840,7 +14840,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15059,7 +15059,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K215" t="inlineStr">
@@ -16050,7 +16050,7 @@
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
@@ -16121,7 +16121,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K223" t="inlineStr">
@@ -17107,7 +17107,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17486,7 +17486,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -18051,7 +18051,7 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
@@ -18252,7 +18252,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18686,7 +18686,7 @@
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K255" t="inlineStr">
@@ -18749,7 +18749,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -19522,7 +19522,7 @@
       </c>
       <c r="J267" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K267" t="inlineStr">
@@ -19751,7 +19751,7 @@
       </c>
       <c r="J270" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K270" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20035,7 +20035,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20110,7 +20110,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -20327,7 +20327,7 @@
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K278" t="inlineStr">
@@ -20540,7 +20540,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21213,7 +21213,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -21292,7 +21292,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -21787,7 +21787,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22447,7 +22447,7 @@
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K307" t="inlineStr">
@@ -22589,7 +22589,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22958,7 +22958,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -23017,11 +23017,11 @@
         </is>
       </c>
       <c r="I315" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K315" t="inlineStr">
@@ -23090,7 +23090,7 @@
       </c>
       <c r="J316" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K316" t="inlineStr">
@@ -23386,7 +23386,7 @@
         </is>
       </c>
       <c r="I320" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J320" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
       </c>
       <c r="J324" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K324" t="inlineStr">
@@ -23754,7 +23754,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="J327" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K327" t="inlineStr">
@@ -24259,7 +24259,7 @@
       </c>
       <c r="J332" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K332" t="inlineStr">
@@ -24624,7 +24624,7 @@
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K337" t="inlineStr">
@@ -24837,7 +24837,7 @@
       </c>
       <c r="J340" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K340" t="inlineStr">
@@ -25203,11 +25203,11 @@
         </is>
       </c>
       <c r="I345" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J345" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K345" t="inlineStr">
@@ -25274,7 +25274,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -25428,7 +25428,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25499,7 +25499,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25728,7 +25728,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25799,7 +25799,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25945,7 +25945,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -26241,7 +26241,7 @@
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K359" t="inlineStr">
@@ -26509,7 +26509,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -26785,7 +26785,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26852,7 +26852,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26927,11 +26927,11 @@
         </is>
       </c>
       <c r="I369" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -27010,7 +27010,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -27073,11 +27073,11 @@
         </is>
       </c>
       <c r="I371" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -27144,7 +27144,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -27361,7 +27361,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -27756,7 +27756,7 @@
       </c>
       <c r="J380" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K380" t="inlineStr">
@@ -28103,7 +28103,7 @@
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K385" t="inlineStr">
@@ -28526,7 +28526,7 @@
         </is>
       </c>
       <c r="I391" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J391" t="inlineStr">
         <is>
@@ -28672,7 +28672,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28743,7 +28743,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -29106,7 +29106,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -29174,7 +29174,7 @@
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K400" t="inlineStr">
@@ -29241,7 +29241,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -29312,7 +29312,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -29387,7 +29387,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -29536,7 +29536,7 @@
         </is>
       </c>
       <c r="I405" t="n">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="J405" t="inlineStr">
         <is>
@@ -29607,11 +29607,11 @@
         </is>
       </c>
       <c r="I406" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29686,11 +29686,11 @@
         </is>
       </c>
       <c r="I407" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -30420,11 +30420,11 @@
         </is>
       </c>
       <c r="I417" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K417" t="inlineStr">
@@ -30491,7 +30491,7 @@
       </c>
       <c r="J418" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K418" t="inlineStr">
@@ -30780,7 +30780,7 @@
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K422" t="inlineStr">
@@ -30851,7 +30851,7 @@
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K423" t="inlineStr">
@@ -31052,11 +31052,11 @@
         </is>
       </c>
       <c r="I426" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J426" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K426" t="inlineStr">
@@ -31135,7 +31135,7 @@
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K427" t="inlineStr">
@@ -31210,11 +31210,11 @@
         </is>
       </c>
       <c r="I428" t="n">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="J428" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K428" t="inlineStr">
@@ -31281,7 +31281,7 @@
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K429" t="inlineStr">
@@ -31416,11 +31416,11 @@
         </is>
       </c>
       <c r="I431" t="n">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K431" t="inlineStr">
@@ -31653,7 +31653,7 @@
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K434" t="inlineStr">
@@ -31787,7 +31787,7 @@
       </c>
       <c r="J436" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K436" t="inlineStr">
@@ -31866,7 +31866,7 @@
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K437" t="inlineStr">
@@ -32009,7 +32009,7 @@
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K439" t="inlineStr">
@@ -32973,7 +32973,7 @@
       </c>
       <c r="J452" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K452" t="inlineStr">
@@ -33261,7 +33261,7 @@
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K456" t="inlineStr">
@@ -33474,7 +33474,7 @@
       </c>
       <c r="J459" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K459" t="inlineStr">
@@ -33542,7 +33542,7 @@
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K460" t="inlineStr">
@@ -33609,11 +33609,11 @@
         </is>
       </c>
       <c r="I461" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K461" t="inlineStr">
@@ -33885,7 +33885,7 @@
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K465" t="inlineStr">
@@ -34879,7 +34879,7 @@
       </c>
       <c r="J478" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K478" t="inlineStr">
@@ -34950,7 +34950,7 @@
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K479" t="inlineStr">
@@ -35025,7 +35025,7 @@
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K480" t="inlineStr">
@@ -35167,7 +35167,7 @@
       </c>
       <c r="J482" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K482" t="inlineStr">
@@ -35242,7 +35242,7 @@
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K483" t="inlineStr">
@@ -35384,7 +35384,7 @@
       </c>
       <c r="J485" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K485" t="inlineStr">
@@ -35459,7 +35459,7 @@
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K486" t="inlineStr">
@@ -35534,7 +35534,7 @@
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K487" t="inlineStr">
@@ -35597,7 +35597,7 @@
       </c>
       <c r="J488" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K488" t="inlineStr">
@@ -35667,7 +35667,7 @@
       </c>
       <c r="J489" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K489" t="inlineStr">
@@ -35749,7 +35749,7 @@
         </is>
       </c>
       <c r="I490" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J490" t="inlineStr">
         <is>
@@ -35887,7 +35887,7 @@
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K492" t="inlineStr">
@@ -35966,7 +35966,7 @@
         </is>
       </c>
       <c r="I493" t="n">
-        <v>1030</v>
+        <v>1035</v>
       </c>
       <c r="J493" t="inlineStr">
         <is>
@@ -36045,7 +36045,7 @@
         </is>
       </c>
       <c r="I494" t="n">
-        <v>3445</v>
+        <v>3492</v>
       </c>
       <c r="J494" t="inlineStr">
         <is>
@@ -36280,7 +36280,7 @@
       </c>
       <c r="J497" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K497" t="inlineStr">
@@ -37543,7 +37543,7 @@
       </c>
       <c r="J514" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K514" t="inlineStr">
@@ -37930,7 +37930,7 @@
       </c>
       <c r="J519" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K519" t="inlineStr">
@@ -37989,7 +37989,7 @@
         </is>
       </c>
       <c r="I520" t="n">
-        <v>1379</v>
+        <v>1388</v>
       </c>
       <c r="J520" t="inlineStr">
         <is>
@@ -38559,7 +38559,7 @@
         </is>
       </c>
       <c r="I528" t="n">
-        <v>798</v>
+        <v>805</v>
       </c>
       <c r="J528" t="inlineStr">
         <is>
@@ -40624,7 +40624,7 @@
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K556" t="inlineStr">
@@ -41063,7 +41063,7 @@
         </is>
       </c>
       <c r="I562" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="J562" t="inlineStr">
         <is>
@@ -41360,7 +41360,7 @@
       </c>
       <c r="J566" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K566" t="inlineStr">
@@ -41502,7 +41502,7 @@
         </is>
       </c>
       <c r="I568" t="n">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J568" t="inlineStr">
         <is>
@@ -41781,7 +41781,7 @@
         </is>
       </c>
       <c r="I572" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J572" t="inlineStr">
         <is>
@@ -42060,7 +42060,7 @@
         </is>
       </c>
       <c r="I576" t="n">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="J576" t="inlineStr">
         <is>
@@ -42408,7 +42408,7 @@
         </is>
       </c>
       <c r="F581" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G581" t="inlineStr">
         <is>
@@ -42421,7 +42421,7 @@
         </is>
       </c>
       <c r="I581" t="n">
-        <v>2485</v>
+        <v>2507</v>
       </c>
       <c r="J581" t="inlineStr">
         <is>
@@ -42906,7 +42906,7 @@
         </is>
       </c>
       <c r="I588" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J588" t="inlineStr">
         <is>

--- a/genshin/546453851622116914_2021-07-12_14-00-02.xlsx
+++ b/genshin/546453851622116914_2021-07-12_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4900980737</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-17 19:04:25</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44394.7947337963</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -610,10 +624,8 @@
           <t>4900980737</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-17 17:18:02</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44394.72085648148</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -677,10 +689,8 @@
           <t>4916248841</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:56:41</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44392.99769675926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -756,10 +766,8 @@
           <t>4916248841</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:42:00</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44392.8625</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -827,10 +835,8 @@
           <t>4916238127</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:39:19</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44392.86063657407</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -898,10 +904,8 @@
           <t>4893790832</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:18:21</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44392.84607638889</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -977,10 +981,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:12:55</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44392.84230324074</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1056,10 +1058,8 @@
           <t>4916248841</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:11:55</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44392.8416087963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1135,10 +1135,8 @@
           <t>4893791889</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:11:10</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44392.84108796297</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1216,10 +1214,8 @@
           <t>4916238127</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:35</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44392.83998842593</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1297,10 +1293,8 @@
           <t>4893790832</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:21</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44392.83982638889</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1376,10 +1370,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:09:06</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44392.83965277778</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1455,10 +1447,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:44</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44392.83939814815</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1536,10 +1526,8 @@
           <t>4893953649</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:37</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44392.83931712963</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1617,10 +1605,8 @@
           <t>4893867146</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:08:30</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44392.83923611111</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1696,10 +1682,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:40</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44392.58518518518</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1767,10 +1751,8 @@
           <t>4912536854</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-15 10:48:52</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44392.45060185185</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1838,10 +1820,8 @@
           <t>4910134585</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:54:37</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44391.95459490741</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1909,10 +1889,8 @@
           <t>4910129559</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:53:54</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44391.95409722222</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1980,10 +1958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:53:43</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44391.95396990741</v>
       </c>
       <c r="I21" t="n">
         <v>3</v>
@@ -2051,10 +2027,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-14 20:33:21</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44391.85649305556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2122,10 +2096,8 @@
           <t>4906527915</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:53:24</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44391.57875</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2185,10 +2157,8 @@
           <t>4906319009</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:18:31</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44391.55452546296</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2260,10 +2230,8 @@
           <t>4906316411</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-14 13:17:16</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44391.55365740741</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2327,10 +2295,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:43:45</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44391.53038194445</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2405,10 +2371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:32:19</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44391.52244212963</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2468,10 +2432,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:03:22</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44391.4606712963</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2539,10 +2501,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:50:49</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44391.45195601852</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2622,10 +2582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:50:35</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44391.45179398148</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2702,10 +2660,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:48:12</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44391.45013888889</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2780,10 +2736,8 @@
           <t>4899574848</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:59:02</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44391.41599537037</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2851,10 +2805,8 @@
           <t>4904704690</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-14 08:28:02</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44391.35280092592</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2918,10 +2870,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:44:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44391.32271990741</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2989,10 +2939,8 @@
           <t>4894015265</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-14 07:15:42</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44391.30256944444</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3060,10 +3008,8 @@
           <t>4904405705</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-14 06:29:11</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44391.2702662037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3136,10 +3082,8 @@
           <t>4904264394</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:53:11</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44391.16193287037</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3211,10 +3155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-14 03:45:22</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44391.15650462963</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3274,10 +3216,8 @@
           <t>4895095057</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:38:14</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44390.94321759259</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3345,10 +3285,8 @@
           <t>4894353998</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:18:47</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44390.92971064815</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3412,10 +3350,8 @@
           <t>4903631791</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:09:25</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44390.92320601852</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3483,10 +3419,8 @@
           <t>4899574848</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:59:58</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44390.91664351852</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3550,10 +3484,8 @@
           <t>4895095057</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:59:40</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44390.91643518519</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3617,10 +3549,8 @@
           <t>4894641462</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:59:02</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44390.91599537037</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3684,10 +3614,8 @@
           <t>4894353998</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:58:51</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44390.91586805556</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3751,10 +3679,8 @@
           <t>4893568794</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:53</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44390.91380787037</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3818,10 +3744,8 @@
           <t>4893539460</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:36</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44390.91361111111</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3885,10 +3809,8 @@
           <t>4893512092</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:24</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44390.91347222222</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3952,10 +3874,8 @@
           <t>4893512360</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:19</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44390.91341435185</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4019,10 +3939,8 @@
           <t>4893513009</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:15</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44390.91336805555</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4086,10 +4004,8 @@
           <t>4893513849</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:55:08</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44390.91328703704</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4153,10 +4069,8 @@
           <t>4903525243</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:54:47</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44390.91304398148</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4220,10 +4134,8 @@
           <t>4903119379</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-13 21:02:06</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44390.87645833333</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4283,10 +4195,8 @@
           <t>4902762413</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-13 20:10:43</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44390.84077546297</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4354,10 +4264,8 @@
           <t>4901793290</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:48:23</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44390.8252662037</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4426,10 +4334,8 @@
           <t>4902530386</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:36:52</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44390.81726851852</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4497,10 +4403,8 @@
           <t>4902233368</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:56:18</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44390.78909722222</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4568,10 +4472,8 @@
           <t>4901985330</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:22:08</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44390.76537037037</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4647,10 +4549,8 @@
           <t>4901985330</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:20:57</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44390.76454861111</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4718,10 +4618,8 @@
           <t>4901793290</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:54:35</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44390.74623842593</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4793,10 +4691,8 @@
           <t>4901678216</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:37:28</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44390.73435185185</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -4860,10 +4756,8 @@
           <t>4897610701</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:36:37</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44390.73376157408</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -4927,10 +4821,8 @@
           <t>4901509178</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:11:07</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44390.71605324074</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5002,10 +4894,8 @@
           <t>4901274688</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:31:09</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44390.68829861111</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5077,10 +4967,8 @@
           <t>4901196368</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:15:52</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44390.67768518518</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5156,10 +5044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:02:46</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44390.66858796297</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5227,10 +5113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:00:05</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44390.66672453703</v>
       </c>
       <c r="I67" t="n">
         <v>12</v>
@@ -5298,10 +5182,8 @@
           <t>4895334468</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:58:52</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44390.66587962963</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5369,10 +5251,8 @@
           <t>4900987919</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:38:41</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44390.65186342593</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5440,10 +5320,8 @@
           <t>4900980737</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:36:31</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44390.65035879629</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5511,10 +5389,8 @@
           <t>4896199349</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:52:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44390.61975694444</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5586,10 +5462,8 @@
           <t>4895334468</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:51:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44390.61886574074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5661,10 +5535,8 @@
           <t>4898765394</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:50:17</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44390.61825231482</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5736,10 +5608,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:32:34</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44390.60594907407</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5807,10 +5677,8 @@
           <t>4900605924</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:23:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44390.59984953704</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -5882,10 +5750,8 @@
           <t>4900563202</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:16:52</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44390.59504629629</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5961,10 +5827,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:16:06</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44390.59451388889</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6040,10 +5904,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:13:35</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44390.59276620371</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6119,10 +5981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:06:47</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44390.58804398148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6190,10 +6050,8 @@
           <t>4897610701</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:33:38</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.56502314815</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6265,10 +6123,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:15:34</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.55247685185</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6340,10 +6196,8 @@
           <t>4900149619</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:05:54</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.54576388889</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6411,10 +6265,8 @@
           <t>4900096805</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:56:59</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.53957175926</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6482,10 +6334,8 @@
           <t>4900017420</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:46:23</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.53221064815</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6562,10 +6412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:00:49</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.50056712963</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6629,10 +6477,8 @@
           <t>4899574848</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:42:06</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.48756944444</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6700,10 +6546,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:32:41</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.43936342592</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6781,10 +6625,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:25:27</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.43434027778</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6848,10 +6690,8 @@
           <t>4899120159</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:16:59</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.42846064815</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6915,10 +6755,8 @@
           <t>4899107344</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:15:14</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.42724537037</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6982,10 +6820,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:09:12</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.42305555556</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7053,10 +6889,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:06:41</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.42130787037</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7116,10 +6950,8 @@
           <t>4899060690</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:05:03</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.42017361111</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7179,10 +7011,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:02:57</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.41871527778</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7242,10 +7072,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:01:44</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44390.41787037037</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7305,10 +7133,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:59:45</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44390.41649305556</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7377,10 +7203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:55:57</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44390.41385416667</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7448,10 +7272,8 @@
           <t>4898979214</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:50:47</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44390.4102662037</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7511,10 +7333,8 @@
           <t>4898974735</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:48:59</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44390.4090162037</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7586,10 +7406,8 @@
           <t>4897610701</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:40:49</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44390.4033449074</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7657,10 +7475,8 @@
           <t>4898885675</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:27:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44390.39429398148</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7736,10 +7552,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:06:58</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44390.37983796297</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7807,10 +7621,8 @@
           <t>4898765394</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:59:04</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44390.37435185185</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7882,10 +7694,8 @@
           <t>4898672267</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:36:32</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44390.35870370371</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7953,10 +7763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:20:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44390.34741898148</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8028,10 +7836,8 @@
           <t>4895540407</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:12:06</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44390.34173611111</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8095,10 +7901,8 @@
           <t>4893975150</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:09:43</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44390.34008101852</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8162,10 +7966,8 @@
           <t>4893833236</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:24:08</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44390.30842592593</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8234,10 +8036,8 @@
           <t>4898309806</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-13 05:43:02</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44390.2382175926</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8309,10 +8109,8 @@
           <t>4898285632</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-13 04:59:09</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44390.20774305556</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8389,10 +8187,8 @@
           <t>4893791889</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-13 03:28:32</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44390.14481481481</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8460,10 +8256,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-13 03:18:00</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44390.1375</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8540,10 +8334,8 @@
           <t>4898108278</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:31:46</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44390.10539351852</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8603,10 +8395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:19:57</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44390.0971875</v>
       </c>
       <c r="I114" t="n">
         <v>4</v>
@@ -8678,10 +8468,8 @@
           <t>4898082658</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:19:04</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44390.09657407407</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8757,10 +8545,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:16:51</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44390.05336805555</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8839,10 +8625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:59:39</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44390.04142361111</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8910,10 +8694,8 @@
           <t>4897790544</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:51:00</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44390.03541666667</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8981,10 +8763,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:50:43</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44390.0352199074</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9052,10 +8832,8 @@
           <t>4897751628</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:42:34</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44390.02956018518</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9131,10 +8909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:40:15</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44390.02795138889</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9210,10 +8986,8 @@
           <t>4897610701</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:17:38</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44390.01224537037</v>
       </c>
       <c r="I122" t="n">
         <v>6</v>
@@ -9277,10 +9051,8 @@
           <t>4897527946</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:05:17</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44390.00366898148</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9348,10 +9120,8 @@
           <t>4893567650</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:02:17</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44390.00158564815</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9419,10 +9189,8 @@
           <t>4893513009</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:58:55</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44389.99924768518</v>
       </c>
       <c r="I125" t="n">
         <v>3</v>
@@ -9490,10 +9258,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:54:51</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44389.99642361111</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9557,10 +9323,8 @@
           <t>4897444404</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:53:19</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44389.9953587963</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9624,10 +9388,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:51:21</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44389.99399305556</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9691,10 +9453,8 @@
           <t>4897222783</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:23:27</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44389.97461805555</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9758,10 +9518,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:20:46</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44389.97275462963</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9825,10 +9583,8 @@
           <t>4893693566</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:20:02</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44389.97224537037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9893,10 +9649,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:15:45</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44389.96927083333</v>
       </c>
       <c r="I132" t="n">
         <v>1</v>
@@ -9968,10 +9722,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:14:51</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44389.96864583333</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10035,10 +9787,8 @@
           <t>4896765443</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:11:35</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44389.96637731481</v>
       </c>
       <c r="I134" t="n">
         <v>2</v>
@@ -10115,10 +9865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:39:39</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44389.94420138889</v>
       </c>
       <c r="I135" t="n">
         <v>11</v>
@@ -10190,10 +9938,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:36:10</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44389.9417824074</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10265,10 +10011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:33:48</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44389.94013888889</v>
       </c>
       <c r="I137" t="n">
         <v>4</v>
@@ -10336,10 +10080,8 @@
           <t>4896808381</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:32:26</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44389.93918981482</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10407,10 +10149,8 @@
           <t>4896765443</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:26:31</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44389.93508101852</v>
       </c>
       <c r="I139" t="n">
         <v>6</v>
@@ -10482,10 +10222,8 @@
           <t>4896615792</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:20:01</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44389.93056712963</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10553,10 +10291,8 @@
           <t>4896615792</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:23</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44389.92248842592</v>
       </c>
       <c r="I141" t="n">
         <v>2</v>
@@ -10620,10 +10356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:07</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44389.92230324074</v>
       </c>
       <c r="I142" t="n">
         <v>1</v>
@@ -10691,10 +10425,8 @@
           <t>4896475638</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:49:53</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44389.9096412037</v>
       </c>
       <c r="I143" t="n">
         <v>1</v>
@@ -10762,10 +10494,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:09</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44389.90635416667</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10835,10 +10565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:26</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44389.90030092592</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10906,10 +10634,8 @@
           <t>4896356944</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:34:27</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44389.89892361111</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10977,10 +10703,8 @@
           <t>4896338031</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:44</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44389.89773148148</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11044,10 +10768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:28:24</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44389.89472222222</v>
       </c>
       <c r="I148" t="n">
         <v>1</v>
@@ -11123,10 +10845,8 @@
           <t>4896288077</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:32</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44389.89273148148</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11194,10 +10914,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:24:12</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44389.89180555556</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11273,10 +10991,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:18:21</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44389.88774305556</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11348,10 +11064,8 @@
           <t>4896207583</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:17</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44389.88491898148</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11423,10 +11137,8 @@
           <t>4896199349</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44389.88428240741</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11494,10 +11206,8 @@
           <t>4896174975</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:54</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44389.88256944445</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11561,10 +11271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:44</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44389.88245370371</v>
       </c>
       <c r="I155" t="n">
         <v>1</v>
@@ -11628,10 +11336,8 @@
           <t>4896138673</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:34</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44389.8781712963</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11695,10 +11401,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:02:12</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44389.87652777778</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11758,10 +11462,8 @@
           <t>4896108943</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:00:52</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44389.87560185185</v>
       </c>
       <c r="I158" t="n">
         <v>1</v>
@@ -11829,10 +11531,8 @@
           <t>4896070835</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:54:58</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44389.87150462963</v>
       </c>
       <c r="I159" t="n">
         <v>5</v>
@@ -11900,10 +11600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:53:52</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44389.87074074074</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -11975,10 +11673,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:39:02</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44389.86043981482</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12040,10 +11736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:41</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44389.84491898148</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12111,10 +11805,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:41</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44389.84491898148</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12182,10 +11874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:16:35</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44389.84484953704</v>
       </c>
       <c r="I164" t="n">
         <v>103</v>
@@ -12257,10 +11947,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:13:15</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44389.84253472222</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12328,10 +12016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:11:36</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44389.84138888889</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12395,10 +12081,8 @@
           <t>4895742829</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:08:08</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44389.83898148148</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12458,10 +12142,8 @@
           <t>4895742434</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:07:59</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44389.83887731482</v>
       </c>
       <c r="I168" t="n">
         <v>1</v>
@@ -12525,10 +12207,8 @@
           <t>4893791889</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:02:20</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44389.83495370371</v>
       </c>
       <c r="I169" t="n">
         <v>2</v>
@@ -12596,10 +12276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-12 20:00:17</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44389.83353009259</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12667,10 +12345,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:56:43</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44389.83105324074</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12738,10 +12414,8 @@
           <t>4895661185</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:55:53</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44389.83047453704</v>
       </c>
       <c r="I172" t="n">
         <v>3</v>
@@ -12805,10 +12479,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:54:15</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44389.82934027778</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12876,10 +12548,8 @@
           <t>4895599407</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:53:06</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44389.82854166667</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12957,10 +12627,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:51:13</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44389.8272337963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13032,10 +12700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:48:21</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44389.82524305556</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13107,10 +12773,8 @@
           <t>4895599407</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:48:17</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44389.82519675926</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13178,10 +12842,8 @@
           <t>4893828409</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:47:11</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44389.82443287037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13257,10 +12919,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:46:09</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44389.82371527778</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13328,10 +12988,8 @@
           <t>4895540407</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:39:35</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44389.81915509259</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13407,10 +13065,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:39:14</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44389.81891203704</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13486,10 +13142,8 @@
           <t>4894253184</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:23:29</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44389.80797453703</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13553,10 +13207,8 @@
           <t>4895422169</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:23:00</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44389.80763888889</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13620,10 +13272,8 @@
           <t>4895390808</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:18:46</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44389.80469907408</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13683,10 +13333,8 @@
           <t>4895382058</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:17:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44389.80407407408</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13754,10 +13402,8 @@
           <t>4895359803</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:15:02</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44389.80210648148</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13817,10 +13463,8 @@
           <t>4895344778</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:12:55</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44389.80063657407</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13884,10 +13528,8 @@
           <t>4895334468</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:12:39</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44389.80045138889</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -13961,10 +13603,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:06:24</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44389.79611111111</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14037,10 +13677,8 @@
           <t>4895143914</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:05:33</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44389.79552083334</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14100,10 +13738,8 @@
           <t>4895283454</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-12 19:05:06</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44389.79520833334</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14179,10 +13815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:58:19</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44389.79049768519</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14250,10 +13884,8 @@
           <t>4895232067</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:57:52</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44389.79018518519</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14321,10 +13953,8 @@
           <t>4895230029</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:57:02</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44389.78960648148</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14392,10 +14022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:53:16</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44389.78699074074</v>
       </c>
       <c r="I195" t="n">
         <v>8</v>
@@ -14463,10 +14091,8 @@
           <t>4895190676</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:51:25</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44389.78570601852</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14534,10 +14160,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:49:38</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44389.7844675926</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14613,10 +14237,8 @@
           <t>4894089348</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:49:32</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44389.78439814815</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14684,10 +14306,8 @@
           <t>4894592103</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:47:34</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44389.78303240741</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14759,10 +14379,8 @@
           <t>4895156167</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:47:08</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44389.78273148148</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14830,10 +14448,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:46:27</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44389.78225694445</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -14901,10 +14517,8 @@
           <t>4895143914</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:46:12</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44389.78208333333</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -14968,10 +14582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:43:58</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44389.78053240741</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15049,10 +14661,8 @@
           <t>4895107931</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:41:15</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44389.77864583334</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15116,10 +14726,8 @@
           <t>4895107901</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:41:15</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44389.77864583334</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15187,10 +14795,8 @@
           <t>4895095057</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:40:39</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44389.77822916667</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15258,10 +14864,8 @@
           <t>4893791889</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:38:46</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44389.7769212963</v>
       </c>
       <c r="I207" t="n">
         <v>1</v>
@@ -15325,10 +14929,8 @@
           <t>4895095057</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:38:16</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44389.77657407407</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15396,10 +14998,8 @@
           <t>4893516685</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:37:38</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44389.77613425926</v>
       </c>
       <c r="I209" t="n">
         <v>4</v>
@@ -15467,10 +15067,8 @@
           <t>4895082287</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:37:05</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44389.77575231482</v>
       </c>
       <c r="I210" t="n">
         <v>5</v>
@@ -15541,10 +15139,8 @@
           <t>4895077330</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:36:28</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44389.77532407407</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15612,10 +15208,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:33:32</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44389.77328703704</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15687,10 +15281,8 @@
           <t>4895034940</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:30:50</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44389.77141203704</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -15756,10 +15348,8 @@
           <t>4894233806</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:24:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44389.76695601852</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15827,10 +15417,8 @@
           <t>4894985901</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:23:15</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44389.76614583333</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15902,10 +15490,8 @@
           <t>4894977553</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:22:26</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44389.7655787037</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -15977,10 +15563,8 @@
           <t>4894962800</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:20:23</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44389.76415509259</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16040,10 +15624,8 @@
           <t>4894966140</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:20:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44389.76393518518</v>
       </c>
       <c r="I218" t="n">
         <v>6</v>
@@ -16111,10 +15693,8 @@
           <t>4894923640</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:14:19</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44389.75994212963</v>
       </c>
       <c r="I219" t="n">
         <v>3</v>
@@ -16182,10 +15762,8 @@
           <t>4894907217</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:11:49</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44389.75820601852</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16261,10 +15839,8 @@
           <t>4894871052</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:06:51</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44389.75475694444</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16328,10 +15904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:05:52</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44389.75407407407</v>
       </c>
       <c r="I222" t="n">
         <v>3</v>
@@ -16403,10 +15977,8 @@
           <t>4894844819</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:04:12</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44389.75291666666</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16474,10 +16046,8 @@
           <t>4894089348</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:03:39</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44389.75253472223</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16537,10 +16107,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:03:10</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44389.75219907407</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16600,10 +16168,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:00:36</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44389.75041666667</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16671,10 +16237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-12 18:00:05</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44389.75005787037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16738,10 +16302,8 @@
           <t>4894798558</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:57:17</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44389.74811342593</v>
       </c>
       <c r="I228" t="n">
         <v>3</v>
@@ -16809,10 +16371,8 @@
           <t>4894797981</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:57:02</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44389.74793981481</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -16888,10 +16448,8 @@
           <t>4894233806</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:53:17</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44389.74533564815</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -16959,10 +16517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:52:07</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44389.74452546296</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17030,10 +16586,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:50:12</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44389.74319444445</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17097,10 +16651,8 @@
           <t>4894755339</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:49:53</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44389.74297453704</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17176,10 +16728,8 @@
           <t>4894741959</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:48:13</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44389.74181712963</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17247,10 +16797,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:47:27</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44389.74128472222</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17326,10 +16874,8 @@
           <t>4894015265</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:46:38</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44389.74071759259</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17401,10 +16947,8 @@
           <t>4894721162</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:44:27</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44389.73920138889</v>
       </c>
       <c r="I237" t="n">
         <v>3</v>
@@ -17476,10 +17020,8 @@
           <t>4894712917</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:43:48</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44389.73875</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17552,10 +17094,8 @@
           <t>4894711878</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:43:18</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44389.73840277778</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -17627,10 +17167,8 @@
           <t>4893789355</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:43:03</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44389.73822916667</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17694,10 +17232,8 @@
           <t>4894015265</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:39:48</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44389.73597222222</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17761,10 +17297,8 @@
           <t>4894015265</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:39:04</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44389.73546296296</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17836,10 +17370,8 @@
           <t>4894673933</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:38:40</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44389.73518518519</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17911,10 +17443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:37:45</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44389.73454861111</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -17974,10 +17504,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:37:22</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44389.73428240741</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18041,10 +17569,8 @@
           <t>4893516685</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:34:43</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44389.73244212963</v>
       </c>
       <c r="I246" t="n">
         <v>9</v>
@@ -18108,10 +17634,8 @@
           <t>4894641462</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:32:44</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44389.73106481481</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18179,10 +17703,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:32:25</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44389.7308449074</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18242,10 +17764,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:31:50</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44389.73043981481</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18309,10 +17829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:28:24</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44389.72805555556</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18388,10 +17906,8 @@
           <t>4894592103</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:24:27</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44389.7253125</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -18463,10 +17979,8 @@
           <t>4894581880</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:23:01</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44389.72431712963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18526,10 +18040,8 @@
           <t>4894581190</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:22:39</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44389.7240625</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -18605,10 +18117,8 @@
           <t>4894569845</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:21:58</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44389.72358796297</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18676,10 +18186,8 @@
           <t>4894569758</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:21:56</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44389.72356481481</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18739,10 +18247,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:18:19</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44389.72105324074</v>
       </c>
       <c r="I256" t="n">
         <v>1</v>
@@ -18810,10 +18316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:17:40</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44389.72060185186</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18889,10 +18393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:16:22</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44389.71969907408</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -18956,10 +18458,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:14:36</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44389.71847222222</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19023,10 +18523,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:14:10</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44389.7181712963</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19094,10 +18592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:10:09</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44389.71538194444</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19173,10 +18669,8 @@
           <t>4894419368</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:08:41</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44389.71436342593</v>
       </c>
       <c r="I262" t="n">
         <v>1</v>
@@ -19240,10 +18734,8 @@
           <t>4894489493</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:08:33</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44389.71427083333</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -19303,10 +18795,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:07:03</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44389.71322916666</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19374,10 +18864,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:06:55</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44389.71313657407</v>
       </c>
       <c r="I265" t="n">
         <v>1</v>
@@ -19441,10 +18929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:03:42</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44389.71090277778</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19512,10 +18998,8 @@
           <t>4894458550</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:02:41</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44389.71019675926</v>
       </c>
       <c r="I267" t="n">
         <v>1</v>
@@ -19591,10 +19075,8 @@
           <t>4894466162</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:02:40</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44389.71018518518</v>
       </c>
       <c r="I268" t="n">
         <v>1</v>
@@ -19666,10 +19148,8 @@
           <t>4894446117</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-12 17:00:05</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44389.70839120371</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19741,10 +19221,8 @@
           <t>4893693566</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:59:21</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44389.70788194444</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -19804,10 +19282,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:58:21</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44389.7071875</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -19879,10 +19355,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:58:14</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44389.70710648148</v>
       </c>
       <c r="I272" t="n">
         <v>1</v>
@@ -19950,10 +19424,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:57:52</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44389.70685185185</v>
       </c>
       <c r="I273" t="n">
         <v>10</v>
@@ -20025,10 +19497,8 @@
           <t>4894424919</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:57:03</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44389.70628472222</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20100,10 +19570,8 @@
           <t>4894419368</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:56:39</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44389.70600694444</v>
       </c>
       <c r="I275" t="n">
         <v>8</v>
@@ -20175,10 +19643,8 @@
           <t>4894426182</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:55:59</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44389.70554398148</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20246,10 +19712,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:54:04</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44389.70421296296</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20317,10 +19781,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:53:01</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44389.70348379629</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20388,10 +19850,8 @@
           <t>4894405730</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:52:24</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44389.70305555555</v>
       </c>
       <c r="I279" t="n">
         <v>1</v>
@@ -20459,10 +19919,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:51:59</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44389.70276620371</v>
       </c>
       <c r="I280" t="n">
         <v>3</v>
@@ -20530,10 +19988,8 @@
           <t>4894388547</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:50:57</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44389.70204861111</v>
       </c>
       <c r="I281" t="n">
         <v>3</v>
@@ -20611,10 +20067,8 @@
           <t>4894391796</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:50:25</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44389.70167824074</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20686,10 +20140,8 @@
           <t>4894374164</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:48:38</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44389.70043981481</v>
       </c>
       <c r="I283" t="n">
         <v>5</v>
@@ -20765,10 +20217,8 @@
           <t>4894374116</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:48:36</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44389.70041666667</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -20832,10 +20282,8 @@
           <t>4894375164</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:47:04</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44389.69935185185</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -20911,10 +20359,8 @@
           <t>4894363938</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:46:27</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44389.69892361111</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -20990,10 +20436,8 @@
           <t>4894368615</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:46:17</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44389.69880787037</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21065,10 +20509,8 @@
           <t>4894301653</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:44:52</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44389.69782407407</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21136,10 +20578,8 @@
           <t>4894353998</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:43:55</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44389.69716435186</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21203,10 +20643,8 @@
           <t>4894347835</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:43:06</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44389.69659722222</v>
       </c>
       <c r="I290" t="n">
         <v>1</v>
@@ -21282,10 +20720,8 @@
           <t>4893811557</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:41:36</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44389.69555555555</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21353,10 +20789,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:41:18</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44389.69534722222</v>
       </c>
       <c r="I292" t="n">
         <v>1</v>
@@ -21424,10 +20858,8 @@
           <t>4894329444</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:40:45</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44389.69496527778</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21497,10 +20929,8 @@
           <t>4894311144</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:36:14</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44389.6918287037</v>
       </c>
       <c r="I294" t="n">
         <v>2</v>
@@ -21572,10 +21002,8 @@
           <t>4894308566</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:35:56</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44389.69162037037</v>
       </c>
       <c r="I295" t="n">
         <v>1</v>
@@ -21635,10 +21063,8 @@
           <t>4894305351</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:34:15</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44389.69045138889</v>
       </c>
       <c r="I296" t="n">
         <v>1</v>
@@ -21710,10 +21136,8 @@
           <t>4894301911</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:34:10</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44389.69039351852</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -21777,10 +21201,8 @@
           <t>4894301653</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:34:01</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44389.69028935185</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -21856,10 +21278,8 @@
           <t>4894292195</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:32:35</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44389.68929398148</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -21931,10 +21351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:32:31</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44389.68924768519</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22010,10 +21428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:32:03</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44389.68892361111</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22078,10 +21494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:31:20</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44389.68842592592</v>
       </c>
       <c r="I302" t="n">
         <v>9</v>
@@ -22149,10 +21563,8 @@
           <t>4894277894</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:30:27</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44389.6878125</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22220,10 +21632,8 @@
           <t>4894269771</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:30:07</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44389.68758101852</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22299,10 +21709,8 @@
           <t>4893658578</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:29:21</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44389.68704861111</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22370,10 +21778,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:29:14</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44389.68696759259</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22437,10 +21843,8 @@
           <t>4894272477</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:28:55</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44389.68674768518</v>
       </c>
       <c r="I307" t="n">
         <v>2</v>
@@ -22504,10 +21908,8 @@
           <t>4894271564</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:28:24</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44389.68638888889</v>
       </c>
       <c r="I308" t="n">
         <v>16</v>
@@ -22579,10 +21981,8 @@
           <t>4894262201</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:27:27</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44389.68572916667</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22650,10 +22050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:27:03</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44389.68545138889</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22721,10 +22119,8 @@
           <t>4894253184</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:26:28</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44389.6850462963</v>
       </c>
       <c r="I311" t="n">
         <v>3</v>
@@ -22810,10 +22206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:25:52</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44389.68462962963</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -22881,10 +22275,8 @@
           <t>4894245145</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:23:47</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44389.68318287037</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -22948,10 +22340,8 @@
           <t>4894233806</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:23:05</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44389.68269675926</v>
       </c>
       <c r="I314" t="n">
         <v>6</v>
@@ -23011,10 +22401,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:22:27</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44389.68225694444</v>
       </c>
       <c r="I315" t="n">
         <v>27</v>
@@ -23080,10 +22468,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:20:32</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44389.68092592592</v>
       </c>
       <c r="I316" t="n">
         <v>51</v>
@@ -23151,10 +22537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:19:41</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44389.68033564815</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23226,10 +22610,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:15:20</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44389.67731481481</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23305,10 +22687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:14:00</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44389.67638888889</v>
       </c>
       <c r="I319" t="n">
         <v>36</v>
@@ -23380,10 +22760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:12:12</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44389.67513888889</v>
       </c>
       <c r="I320" t="n">
         <v>81</v>
@@ -23459,10 +22837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:11:44</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44389.67481481482</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23530,10 +22906,8 @@
           <t>4894176170</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:11:00</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44389.67430555556</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23605,10 +22979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:03:43</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44389.66924768518</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23677,10 +23049,8 @@
           <t>4894130264</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:02:33</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44389.6684375</v>
       </c>
       <c r="I324" t="n">
         <v>2</v>
@@ -23744,10 +23114,8 @@
           <t>4894116205</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:00:21</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44389.66690972223</v>
       </c>
       <c r="I325" t="n">
         <v>28</v>
@@ -23811,10 +23179,8 @@
           <t>4893844686</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-12 16:00:16</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44389.66685185185</v>
       </c>
       <c r="I326" t="n">
         <v>6</v>
@@ -23878,10 +23244,8 @@
           <t>4894103640</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:58:54</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44389.66590277778</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -23949,10 +23313,8 @@
           <t>4893511949</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:56:58</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44389.66456018519</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24024,10 +23386,8 @@
           <t>4894096185</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:56:31</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44389.66424768518</v>
       </c>
       <c r="I329" t="n">
         <v>3</v>
@@ -24103,10 +23463,8 @@
           <t>4894089348</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:56:27</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44389.66420138889</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24178,10 +23536,8 @@
           <t>4894093415</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:56:09</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44389.66399305555</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24249,10 +23605,8 @@
           <t>4894087332</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:55:18</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44389.66340277778</v>
       </c>
       <c r="I332" t="n">
         <v>1</v>
@@ -24328,10 +23682,8 @@
           <t>4894086915</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:55:05</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44389.66325231481</v>
       </c>
       <c r="I333" t="n">
         <v>3</v>
@@ -24395,10 +23747,8 @@
           <t>4894072627</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:52:38</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44389.66155092593</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24470,10 +23820,8 @@
           <t>4893516685</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:51:09</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44389.66052083333</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24551,10 +23899,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:50:49</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44389.66028935185</v>
       </c>
       <c r="I336" t="n">
         <v>5</v>
@@ -24614,10 +23960,8 @@
           <t>4894057866</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:49:53</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44389.6596412037</v>
       </c>
       <c r="I337" t="n">
         <v>15</v>
@@ -24681,10 +24025,8 @@
           <t>4894035968</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:49:22</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44389.65928240741</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24760,10 +24102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:46:20</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44389.65717592592</v>
       </c>
       <c r="I339" t="n">
         <v>1</v>
@@ -24827,10 +24167,8 @@
           <t>4894040922</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:45:47</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44389.65679398148</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -24902,10 +24240,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:44:59</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44389.65623842592</v>
       </c>
       <c r="I341" t="n">
         <v>6</v>
@@ -24973,10 +24309,8 @@
           <t>4894035968</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:44:32</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44389.65592592592</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25054,10 +24388,8 @@
           <t>4894025497</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:42:36</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44389.65458333334</v>
       </c>
       <c r="I343" t="n">
         <v>2</v>
@@ -25126,10 +24458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:41:37</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44389.65390046296</v>
       </c>
       <c r="I344" t="n">
         <v>1</v>
@@ -25197,10 +24527,8 @@
           <t>4894015265</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:40:21</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44389.65302083334</v>
       </c>
       <c r="I345" t="n">
         <v>4</v>
@@ -25264,10 +24592,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:40:09</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44389.65288194444</v>
       </c>
       <c r="I346" t="n">
         <v>13</v>
@@ -25343,10 +24669,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:39:34</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44389.65247685185</v>
       </c>
       <c r="I347" t="n">
         <v>28</v>
@@ -25418,10 +24742,8 @@
           <t>4894003285</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:39:13</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44389.6522337963</v>
       </c>
       <c r="I348" t="n">
         <v>5</v>
@@ -25489,10 +24811,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:38:02</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44389.65141203703</v>
       </c>
       <c r="I349" t="n">
         <v>11</v>
@@ -25560,10 +24880,8 @@
           <t>4893997139</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:37:43</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44389.65119212963</v>
       </c>
       <c r="I350" t="n">
         <v>1</v>
@@ -25639,10 +24957,8 @@
           <t>4893996536</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:37:21</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44389.6509375</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -25718,10 +25034,8 @@
           <t>4893811557</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:36:39</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44389.65045138889</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25789,10 +25103,8 @@
           <t>4893992171</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:36:18</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44389.65020833333</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -25860,10 +25172,8 @@
           <t>4893984499</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:36:11</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44389.65012731482</v>
       </c>
       <c r="I354" t="n">
         <v>3</v>
@@ -25935,10 +25245,8 @@
           <t>4893673222</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:35:53</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44389.64991898148</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26006,10 +25314,8 @@
           <t>4893990948</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:35:34</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44389.64969907407</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26077,10 +25383,8 @@
           <t>4893981178</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:34:15</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44389.64878472222</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26152,10 +25456,8 @@
           <t>4893978590</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:34:07</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44389.64869212963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26231,10 +25533,8 @@
           <t>4893971463</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:32:31</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44389.64758101852</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26298,10 +25598,8 @@
           <t>4893975771</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:32:25</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44389.64751157408</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26361,10 +25659,8 @@
           <t>4893975150</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:32:02</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44389.64724537037</v>
       </c>
       <c r="I361" t="n">
         <v>17</v>
@@ -26428,10 +25724,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:59</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44389.64721064815</v>
       </c>
       <c r="I362" t="n">
         <v>6</v>
@@ -26499,10 +25793,8 @@
           <t>4893868192</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:51</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44389.64711805555</v>
       </c>
       <c r="I363" t="n">
         <v>6</v>
@@ -26566,10 +25858,8 @@
           <t>4893964182</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:28</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44389.64685185185</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26633,10 +25923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:21</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44389.64677083334</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26700,10 +25988,8 @@
           <t>4893966013</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:14</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44389.64668981481</v>
       </c>
       <c r="I366" t="n">
         <v>1</v>
@@ -26775,10 +26061,8 @@
           <t>4893963529</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:31:04</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44389.64657407408</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -26842,10 +26126,8 @@
           <t>4893958157</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:30:33</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44389.64621527777</v>
       </c>
       <c r="I368" t="n">
         <v>3</v>
@@ -26921,10 +26203,8 @@
           <t>4893953649</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:29:50</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44389.64571759259</v>
       </c>
       <c r="I369" t="n">
         <v>16</v>
@@ -27000,10 +26280,8 @@
           <t>4893955161</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:28:47</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44389.64498842593</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27067,10 +26345,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:28:34</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44389.64483796297</v>
       </c>
       <c r="I371" t="n">
         <v>34</v>
@@ -27134,10 +26410,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:28:33</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44389.64482638889</v>
       </c>
       <c r="I372" t="n">
         <v>19</v>
@@ -27205,10 +26479,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:27:51</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44389.64434027778</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27276,10 +26548,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:27:23</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44389.6440162037</v>
       </c>
       <c r="I374" t="n">
         <v>2</v>
@@ -27355,10 +26625,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:26:51</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44389.64364583333</v>
       </c>
       <c r="I375" t="n">
         <v>418</v>
@@ -27442,10 +26710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:25:12</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44389.6425</v>
       </c>
       <c r="I376" t="n">
         <v>31</v>
@@ -27521,10 +26787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:24:53</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44389.64228009259</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27600,10 +26864,8 @@
           <t>4893932453</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:24:21</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44389.64190972222</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -27667,10 +26929,8 @@
           <t>4893932303</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:24:16</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44389.64185185185</v>
       </c>
       <c r="I379" t="n">
         <v>1</v>
@@ -27746,10 +27006,8 @@
           <t>4893932260</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:24:15</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44389.64184027778</v>
       </c>
       <c r="I380" t="n">
         <v>4</v>
@@ -27821,10 +27079,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:24:02</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44389.64168981482</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -27884,10 +27140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:23:47</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44389.6415162037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -27955,10 +27209,8 @@
           <t>4893914676</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:22:39</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44389.64072916667</v>
       </c>
       <c r="I383" t="n">
         <v>8</v>
@@ -28030,10 +27282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:21:47</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44389.64012731481</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28093,10 +27343,8 @@
           <t>4893868192</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:20:12</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44389.63902777778</v>
       </c>
       <c r="I385" t="n">
         <v>22</v>
@@ -28164,10 +27412,8 @@
           <t>4893906148</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:19:30</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44389.63854166667</v>
       </c>
       <c r="I386" t="n">
         <v>1</v>
@@ -28231,10 +27477,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:18:53</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44389.63811342593</v>
       </c>
       <c r="I387" t="n">
         <v>1</v>
@@ -28294,10 +27538,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:18:27</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44389.6378125</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
@@ -28378,10 +27620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:17:49</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44389.63737268518</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28457,10 +27697,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:13:00</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44389.63402777778</v>
       </c>
       <c r="I390" t="n">
         <v>7</v>
@@ -28520,10 +27758,8 @@
           <t>4893868192</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:12:34</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44389.63372685185</v>
       </c>
       <c r="I391" t="n">
         <v>35</v>
@@ -28595,10 +27831,8 @@
           <t>4893863574</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:12:09</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44389.6334375</v>
       </c>
       <c r="I392" t="n">
         <v>2</v>
@@ -28662,10 +27896,8 @@
           <t>4893867146</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:11:56</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44389.63328703704</v>
       </c>
       <c r="I393" t="n">
         <v>11</v>
@@ -28733,10 +27965,8 @@
           <t>4893863152</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:11:54</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44389.63326388889</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -28808,10 +28038,8 @@
           <t>4893858982</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:10:45</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44389.63246527778</v>
       </c>
       <c r="I395" t="n">
         <v>2</v>
@@ -28883,10 +28111,8 @@
           <t>4893858765</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:10:37</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44389.63237268518</v>
       </c>
       <c r="I396" t="n">
         <v>7</v>
@@ -28950,10 +28176,8 @@
           <t>4893854662</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:10:25</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44389.6322337963</v>
       </c>
       <c r="I397" t="n">
         <v>7</v>
@@ -29021,10 +28245,8 @@
           <t>4893844686</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:08:16</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44389.63074074074</v>
       </c>
       <c r="I398" t="n">
         <v>35</v>
@@ -29096,10 +28318,8 @@
           <t>4893834253</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:06:42</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44389.62965277778</v>
       </c>
       <c r="I399" t="n">
         <v>4</v>
@@ -29164,10 +28384,8 @@
           <t>4893841597</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:06:30</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44389.62951388889</v>
       </c>
       <c r="I400" t="n">
         <v>3</v>
@@ -29231,10 +28449,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:06:29</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44389.62950231481</v>
       </c>
       <c r="I401" t="n">
         <v>3</v>
@@ -29302,10 +28518,8 @@
           <t>4893833236</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:06:07</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44389.62924768519</v>
       </c>
       <c r="I402" t="n">
         <v>10</v>
@@ -29377,10 +28591,8 @@
           <t>4893840835</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:06:02</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44389.62918981481</v>
       </c>
       <c r="I403" t="n">
         <v>9</v>
@@ -29440,10 +28652,8 @@
           <t>4893832747</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:05:48</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44389.62902777778</v>
       </c>
       <c r="I404" t="n">
         <v>14</v>
@@ -29530,10 +28740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:05:26</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44389.62877314815</v>
       </c>
       <c r="I405" t="n">
         <v>786</v>
@@ -29601,10 +28809,8 @@
           <t>4893828409</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:04:40</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44389.62824074074</v>
       </c>
       <c r="I406" t="n">
         <v>63</v>
@@ -29680,10 +28886,8 @@
           <t>4893516685</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:03:38</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44389.62752314815</v>
       </c>
       <c r="I407" t="n">
         <v>132</v>
@@ -29751,10 +28955,8 @@
           <t>4893822561</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:03:04</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44389.62712962963</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -29826,10 +29028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:01:48</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44389.62625</v>
       </c>
       <c r="I409" t="n">
         <v>3</v>
@@ -29897,10 +29097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:00:55</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44389.62563657408</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -29968,10 +29166,8 @@
           <t>4893811557</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:00:39</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44389.62545138889</v>
       </c>
       <c r="I411" t="n">
         <v>9</v>
@@ -30039,10 +29235,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-12 15:00:05</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44389.62505787037</v>
       </c>
       <c r="I412" t="n">
         <v>7</v>
@@ -30114,10 +29308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:59:24</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44389.62458333333</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30193,10 +29385,8 @@
           <t>4893789355</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:56</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44389.62425925926</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30268,10 +29458,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:34</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44389.62400462963</v>
       </c>
       <c r="I415" t="n">
         <v>3</v>
@@ -30339,10 +29527,8 @@
           <t>4893789355</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:29</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44389.62394675926</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30414,10 +29600,8 @@
           <t>4893794967</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:17</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44389.62380787037</v>
       </c>
       <c r="I417" t="n">
         <v>17</v>
@@ -30481,10 +29665,8 @@
           <t>4893767388</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:05</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44389.62366898148</v>
       </c>
       <c r="I418" t="n">
         <v>9</v>
@@ -30548,10 +29730,8 @@
           <t>4893789355</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:01</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44389.62362268518</v>
       </c>
       <c r="I419" t="n">
         <v>9</v>
@@ -30628,10 +29808,8 @@
           <t>4893796936</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:58:00</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44389.62361111111</v>
       </c>
       <c r="I420" t="n">
         <v>8</v>
@@ -30695,10 +29873,8 @@
           <t>4893693566</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:57:39</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44389.62336805555</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30770,10 +29946,8 @@
           <t>4893791889</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:56:30</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44389.62256944444</v>
       </c>
       <c r="I422" t="n">
         <v>62</v>
@@ -30841,10 +30015,8 @@
           <t>4893767388</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:56:27</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44389.62253472222</v>
       </c>
       <c r="I423" t="n">
         <v>8</v>
@@ -30908,10 +30080,8 @@
           <t>4893786292</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:56:10</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44389.62233796297</v>
       </c>
       <c r="I424" t="n">
         <v>1</v>
@@ -30975,10 +30145,8 @@
           <t>4893791166</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:56:05</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44389.62228009259</v>
       </c>
       <c r="I425" t="n">
         <v>11</v>
@@ -31046,10 +30214,8 @@
           <t>4893790832</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:55:53</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44389.6221412037</v>
       </c>
       <c r="I426" t="n">
         <v>23</v>
@@ -31125,10 +30291,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:54:58</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44389.62150462963</v>
       </c>
       <c r="I427" t="n">
         <v>21</v>
@@ -31204,10 +30368,8 @@
           <t>4893767517</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:52:34</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44389.61983796296</v>
       </c>
       <c r="I428" t="n">
         <v>362</v>
@@ -31271,10 +30433,8 @@
           <t>4893767388</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:52:30</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44389.61979166666</v>
       </c>
       <c r="I429" t="n">
         <v>13</v>
@@ -31338,10 +30498,8 @@
           <t>4893658578</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:51:16</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44389.61893518519</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31410,10 +30568,8 @@
           <t>4893760651</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:49:50</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44389.61793981482</v>
       </c>
       <c r="I431" t="n">
         <v>516</v>
@@ -31493,10 +30649,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:49:44</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44389.61787037037</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31568,10 +30722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:49:08</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44389.6174537037</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31643,10 +30795,8 @@
           <t>4893749223</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:49:00</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44389.61736111111</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31714,10 +30864,8 @@
           <t>4893693566</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:48:50</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44389.61724537037</v>
       </c>
       <c r="I435" t="n">
         <v>2</v>
@@ -31777,10 +30925,8 @@
           <t>4893750663</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:48:35</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44389.61707175926</v>
       </c>
       <c r="I436" t="n">
         <v>10</v>
@@ -31856,10 +31002,8 @@
           <t>4893743029</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:47:59</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44389.61665509259</v>
       </c>
       <c r="I437" t="n">
         <v>1</v>
@@ -31932,10 +31076,8 @@
           <t>4893737884</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:47:03</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44389.61600694444</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
@@ -31999,10 +31141,8 @@
           <t>4893736263</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:46:09</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44389.61538194444</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32071,10 +31211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:43:03</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44389.61322916667</v>
       </c>
       <c r="I440" t="n">
         <v>12</v>
@@ -32142,10 +31280,8 @@
           <t>4893720441</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:42:48</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44389.61305555556</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32217,10 +31353,8 @@
           <t>4893658578</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:42:05</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44389.61255787037</v>
       </c>
       <c r="I442" t="n">
         <v>2</v>
@@ -32284,10 +31418,8 @@
           <t>4893717183</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:42:00</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44389.6125</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32359,10 +31491,8 @@
           <t>4893658578</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:41:38</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44389.61224537037</v>
       </c>
       <c r="I444" t="n">
         <v>4</v>
@@ -32438,10 +31568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:41:15</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44389.61197916666</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32505,10 +31633,8 @@
           <t>4893707248</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:40:56</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44389.61175925926</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -32580,10 +31706,8 @@
           <t>4893699225</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:39:45</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44389.6109375</v>
       </c>
       <c r="I447" t="n">
         <v>0</v>
@@ -32655,10 +31779,8 @@
           <t>4893702011</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:38:59</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44389.61040509259</v>
       </c>
       <c r="I448" t="n">
         <v>15</v>
@@ -32734,10 +31856,8 @@
           <t>4893693566</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:38:49</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44389.61028935185</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -32809,10 +31929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:37:43</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44389.60952546296</v>
       </c>
       <c r="I450" t="n">
         <v>2</v>
@@ -32888,10 +32006,8 @@
           <t>4893646815</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:36:37</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44389.60876157408</v>
       </c>
       <c r="I451" t="n">
         <v>2</v>
@@ -32963,10 +32079,8 @@
           <t>4893679083</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:36:13</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44389.6084837963</v>
       </c>
       <c r="I452" t="n">
         <v>14</v>
@@ -33038,10 +32152,8 @@
           <t>4893678758</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:36:02</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44389.60835648148</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33113,10 +32225,8 @@
           <t>4893678176</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:35:41</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44389.60811342593</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33180,10 +32290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:35:31</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44389.60799768518</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33251,10 +32359,8 @@
           <t>4893674640</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:34:49</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44389.60751157408</v>
       </c>
       <c r="I456" t="n">
         <v>6</v>
@@ -33322,10 +32428,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:34:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44389.60710648148</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33393,10 +32497,8 @@
           <t>4893673222</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:59</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44389.60693287037</v>
       </c>
       <c r="I458" t="n">
         <v>21</v>
@@ -33464,10 +32566,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:33:42</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44389.60673611111</v>
       </c>
       <c r="I459" t="n">
         <v>5</v>
@@ -33532,10 +32632,8 @@
           <t>4893658578</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:31:19</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44389.60508101852</v>
       </c>
       <c r="I460" t="n">
         <v>4</v>
@@ -33603,10 +32701,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:31:06</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44389.60493055556</v>
       </c>
       <c r="I461" t="n">
         <v>44</v>
@@ -33670,10 +32766,8 @@
           <t>4893649924</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:31:00</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44389.60486111111</v>
       </c>
       <c r="I462" t="n">
         <v>28</v>
@@ -33745,10 +32839,8 @@
           <t>4893656752</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:30:19</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44389.60438657407</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -33812,10 +32904,8 @@
           <t>4893646815</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:29:18</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44389.60368055556</v>
       </c>
       <c r="I464" t="n">
         <v>5</v>
@@ -33875,10 +32965,8 @@
           <t>4893651077</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:28:58</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44389.60344907407</v>
       </c>
       <c r="I465" t="n">
         <v>8</v>
@@ -33942,10 +33030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:28:27</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44389.60309027778</v>
       </c>
       <c r="I466" t="n">
         <v>1</v>
@@ -34021,10 +33107,8 @@
           <t>4893504912</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:28:06</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44389.60284722222</v>
       </c>
       <c r="I467" t="n">
         <v>6</v>
@@ -34088,10 +33172,8 @@
           <t>4893632513</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:26:50</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44389.60196759259</v>
       </c>
       <c r="I468" t="n">
         <v>28</v>
@@ -34167,10 +33249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:26:39</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44389.60184027778</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34238,10 +33318,8 @@
           <t>4893628392</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:25:35</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44389.60109953704</v>
       </c>
       <c r="I470" t="n">
         <v>6</v>
@@ -34313,10 +33391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:24:54</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44389.600625</v>
       </c>
       <c r="I471" t="n">
         <v>2</v>
@@ -34388,10 +33464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:24:20</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44389.60023148148</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34459,10 +33533,8 @@
           <t>4893622357</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:23:58</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44389.59997685185</v>
       </c>
       <c r="I473" t="n">
         <v>7</v>
@@ -34580,10 +33652,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:23:30</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44389.59965277778</v>
       </c>
       <c r="I474" t="n">
         <v>73</v>
@@ -34648,10 +33718,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:23:22</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44389.59956018518</v>
       </c>
       <c r="I475" t="n">
         <v>1</v>
@@ -34727,10 +33795,8 @@
           <t>4893614129</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:23:10</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44389.5994212963</v>
       </c>
       <c r="I476" t="n">
         <v>3</v>
@@ -34794,10 +33860,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:22:44</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44389.59912037037</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -34869,10 +33933,8 @@
           <t>4893613193</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:22:39</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44389.5990625</v>
       </c>
       <c r="I478" t="n">
         <v>29</v>
@@ -34940,10 +34002,8 @@
           <t>4893612388</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:22:12</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44389.59875</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35015,10 +34075,8 @@
           <t>4893612201</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:22:05</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44389.59866898148</v>
       </c>
       <c r="I480" t="n">
         <v>16</v>
@@ -35082,10 +34140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:21:15</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44389.59809027778</v>
       </c>
       <c r="I481" t="n">
         <v>5</v>
@@ -35157,10 +34213,8 @@
           <t>4893584713</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:48</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44389.59708333333</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35232,10 +34286,8 @@
           <t>4893574308</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:38</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44389.5969675926</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35307,10 +34359,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:31</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44389.59688657407</v>
       </c>
       <c r="I484" t="n">
         <v>9</v>
@@ -35374,10 +34424,8 @@
           <t>4893574308</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:18</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44389.59673611111</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35449,10 +34497,8 @@
           <t>4893574308</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:16</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44389.59671296296</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35524,10 +34570,8 @@
           <t>4893584713</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:19:16</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44389.59671296296</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35587,10 +34631,8 @@
           <t>4893596440</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:18:51</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44389.59642361111</v>
       </c>
       <c r="I488" t="n">
         <v>1</v>
@@ -35657,10 +34699,8 @@
           <t>4893574308</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:18:17</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44389.59603009259</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35743,10 +34783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:18:08</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44389.59592592593</v>
       </c>
       <c r="I490" t="n">
         <v>238</v>
@@ -35810,10 +34848,8 @@
           <t>4893591756</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:18:00</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44389.59583333333</v>
       </c>
       <c r="I491" t="n">
         <v>6</v>
@@ -35877,10 +34913,8 @@
           <t>4893584713</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:17:53</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44389.59575231482</v>
       </c>
       <c r="I492" t="n">
         <v>2</v>
@@ -35960,10 +34994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:17:28</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44389.59546296296</v>
       </c>
       <c r="I493" t="n">
         <v>1035</v>
@@ -36039,10 +35071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:17:18</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44389.59534722222</v>
       </c>
       <c r="I494" t="n">
         <v>3492</v>
@@ -36118,10 +35148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:16:56</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44389.59509259259</v>
       </c>
       <c r="I495" t="n">
         <v>58</v>
@@ -36189,10 +35217,8 @@
           <t>4893568794</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:16:25</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44389.59473379629</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36270,10 +35296,8 @@
           <t>4893574308</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:16:04</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44389.59449074074</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36345,10 +35369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:15:35</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44389.59415509259</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36417,10 +35439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:15:28</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44389.59407407408</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36488,10 +35508,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:15:24</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44389.59402777778</v>
       </c>
       <c r="I500" t="n">
         <v>2</v>
@@ -36568,10 +35586,8 @@
           <t>4893572581</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:15:04</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44389.5937962963</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36647,10 +35663,8 @@
           <t>4893576462</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:15:04</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44389.5937962963</v>
       </c>
       <c r="I502" t="n">
         <v>18</v>
@@ -36727,10 +35741,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:57</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44389.59371527778</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -36806,10 +35818,8 @@
           <t>4893572313</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:54</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44389.59368055555</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36873,10 +35883,8 @@
           <t>4893569256</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:47</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44389.59359953704</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -36944,10 +35952,8 @@
           <t>4893568794</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:31</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44389.59341435185</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37019,10 +36025,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:30</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44389.59340277778</v>
       </c>
       <c r="I507" t="n">
         <v>28</v>
@@ -37086,10 +36090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:22</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44389.59331018518</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37165,10 +36167,8 @@
           <t>4893571184</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:14:13</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44389.59320601852</v>
       </c>
       <c r="I509" t="n">
         <v>3</v>
@@ -37232,10 +36232,8 @@
           <t>4893564327</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:53</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44389.59297453704</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37300,10 +36298,8 @@
           <t>4893567650</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:51</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44389.59295138889</v>
       </c>
       <c r="I511" t="n">
         <v>74</v>
@@ -37375,10 +36371,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:12</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44389.5925</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37454,10 +36448,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:09</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44389.59246527778</v>
       </c>
       <c r="I513" t="n">
         <v>0</v>
@@ -37533,10 +36525,8 @@
           <t>4893559090</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:02</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44389.59238425926</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37608,10 +36598,8 @@
           <t>4893562733</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:13:00</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44389.59236111111</v>
       </c>
       <c r="I515" t="n">
         <v>2</v>
@@ -37687,10 +36675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:56</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44389.59231481481</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37766,10 +36752,8 @@
           <t>4893562266</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:45</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44389.5921875</v>
       </c>
       <c r="I517" t="n">
         <v>0</v>
@@ -37845,10 +36829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:44</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44389.59217592593</v>
       </c>
       <c r="I518" t="n">
         <v>0</v>
@@ -37920,10 +36902,8 @@
           <t>4893561808</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:30</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44389.59201388889</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -37983,10 +36963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:24</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44389.59194444444</v>
       </c>
       <c r="I520" t="n">
         <v>1388</v>
@@ -38054,10 +37032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:19</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44389.59188657408</v>
       </c>
       <c r="I521" t="n">
         <v>0</v>
@@ -38121,10 +37097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:12:18</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44389.591875</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38200,10 +37174,8 @@
           <t>4893557307</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:11:59</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44389.59165509259</v>
       </c>
       <c r="I523" t="n">
         <v>0</v>
@@ -38271,10 +37243,8 @@
           <t>4893560447</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:11:46</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44389.59150462963</v>
       </c>
       <c r="I524" t="n">
         <v>0</v>
@@ -38338,10 +37308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:54</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44389.59090277777</v>
       </c>
       <c r="I525" t="n">
         <v>76</v>
@@ -38401,10 +37369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:50</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44389.59085648148</v>
       </c>
       <c r="I526" t="n">
         <v>0</v>
@@ -38472,10 +37438,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:48</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44389.59083333334</v>
       </c>
       <c r="I527" t="n">
         <v>6</v>
@@ -38553,10 +37517,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:28</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44389.59060185185</v>
       </c>
       <c r="I528" t="n">
         <v>805</v>
@@ -38623,10 +37585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:16</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44389.59046296297</v>
       </c>
       <c r="I529" t="n">
         <v>5</v>
@@ -38698,10 +37658,8 @@
           <t>4893544140</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:10:09</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44389.59038194444</v>
       </c>
       <c r="I530" t="n">
         <v>0</v>
@@ -38777,10 +37735,8 @@
           <t>4893550397</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:50</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44389.59016203704</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -38848,10 +37804,8 @@
           <t>4893546734</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:46</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44389.59011574074</v>
       </c>
       <c r="I532" t="n">
         <v>0</v>
@@ -38915,10 +37869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:45</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44389.59010416667</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -38994,10 +37946,8 @@
           <t>4893546724</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:45</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44389.59010416667</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39065,10 +38015,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:40</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44389.5900462963</v>
       </c>
       <c r="I535" t="n">
         <v>0</v>
@@ -39155,10 +38103,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:23</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44389.58984953703</v>
       </c>
       <c r="I536" t="n">
         <v>18</v>
@@ -39218,10 +38164,8 @@
           <t>4893539460</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:20</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44389.58981481481</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
@@ -39289,10 +38233,8 @@
           <t>4893539198</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:11</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44389.58971064815</v>
       </c>
       <c r="I538" t="n">
         <v>0</v>
@@ -39360,10 +38302,8 @@
           <t>4893513512</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:09:09</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44389.5896875</v>
       </c>
       <c r="I539" t="n">
         <v>11</v>
@@ -39435,10 +38375,8 @@
           <t>4893537191</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:08:06</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44389.58895833333</v>
       </c>
       <c r="I540" t="n">
         <v>3</v>
@@ -39510,10 +38448,8 @@
           <t>4893532545</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:07:34</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44389.58858796296</v>
       </c>
       <c r="I541" t="n">
         <v>1</v>
@@ -39589,10 +38525,8 @@
           <t>4893529297</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:07:25</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44389.58848379629</v>
       </c>
       <c r="I542" t="n">
         <v>9</v>
@@ -39660,10 +38594,8 @@
           <t>4893529146</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:07:19</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44389.58841435185</v>
       </c>
       <c r="I543" t="n">
         <v>17</v>
@@ -39731,10 +38663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:07:13</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44389.58834490741</v>
       </c>
       <c r="I544" t="n">
         <v>33</v>
@@ -39798,10 +38728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:07:12</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44389.58833333333</v>
       </c>
       <c r="I545" t="n">
         <v>26</v>
@@ -39878,10 +38806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:06:59</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44389.58818287037</v>
       </c>
       <c r="I546" t="n">
         <v>1</v>
@@ -39949,10 +38875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:06:47</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44389.58804398148</v>
       </c>
       <c r="I547" t="n">
         <v>7</v>
@@ -40028,10 +38952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:06:37</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44389.58792824074</v>
       </c>
       <c r="I548" t="n">
         <v>0</v>
@@ -40095,10 +39017,8 @@
           <t>4893523469</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:06:06</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44389.58756944445</v>
       </c>
       <c r="I549" t="n">
         <v>19</v>
@@ -40170,10 +39090,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:05:16</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44389.58699074074</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40251,10 +39169,8 @@
           <t>4893521969</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:05:15</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44389.58697916667</v>
       </c>
       <c r="I551" t="n">
         <v>14</v>
@@ -40322,10 +39238,8 @@
           <t>4893518176</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:05:10</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44389.58692129629</v>
       </c>
       <c r="I552" t="n">
         <v>23</v>
@@ -40393,10 +39307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:05:03</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44389.58684027778</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40468,10 +39380,8 @@
           <t>4893514878</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:52</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44389.58671296296</v>
       </c>
       <c r="I554" t="n">
         <v>2</v>
@@ -40543,10 +39453,8 @@
           <t>4893521042</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:44</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44389.58662037037</v>
       </c>
       <c r="I555" t="n">
         <v>39</v>
@@ -40614,10 +39522,8 @@
           <t>4893514036</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:22</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44389.58636574074</v>
       </c>
       <c r="I556" t="n">
         <v>52</v>
@@ -40694,10 +39600,8 @@
           <t>4893516685</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:21</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44389.58635416667</v>
       </c>
       <c r="I557" t="n">
         <v>291</v>
@@ -40765,10 +39669,8 @@
           <t>4893513849</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:16</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44389.58629629629</v>
       </c>
       <c r="I558" t="n">
         <v>0</v>
@@ -40832,10 +39734,8 @@
           <t>4893509881</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:08</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44389.5862037037</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -40907,10 +39807,8 @@
           <t>4893513512</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:05</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44389.58616898148</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -40982,10 +39880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:04:02</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44389.58613425926</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41057,10 +39953,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:53</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44389.58603009259</v>
       </c>
       <c r="I562" t="n">
         <v>86</v>
@@ -41132,10 +40026,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:51</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44389.58600694445</v>
       </c>
       <c r="I563" t="n">
         <v>2</v>
@@ -41208,10 +40100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:50</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44389.58599537037</v>
       </c>
       <c r="I564" t="n">
         <v>32</v>
@@ -41279,10 +40169,8 @@
           <t>4893513009</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:48</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44389.58597222222</v>
       </c>
       <c r="I565" t="n">
         <v>13</v>
@@ -41350,10 +40238,8 @@
           <t>4893512360</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:26</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44389.58571759259</v>
       </c>
       <c r="I566" t="n">
         <v>3</v>
@@ -41429,10 +40315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:25</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44389.58570601852</v>
       </c>
       <c r="I567" t="n">
         <v>0</v>
@@ -41496,10 +40380,8 @@
           <t>4893504912</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:23</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44389.58568287037</v>
       </c>
       <c r="I568" t="n">
         <v>184</v>
@@ -41563,10 +40445,8 @@
           <t>4893512092</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:16</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44389.58560185185</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41634,10 +40514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:14</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44389.58557870371</v>
       </c>
       <c r="I570" t="n">
         <v>0</v>
@@ -41704,10 +40582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:14</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44389.58557870371</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -41775,10 +40651,8 @@
           <t>4893511949</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:11</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44389.58554398148</v>
       </c>
       <c r="I572" t="n">
         <v>175</v>
@@ -41850,10 +40724,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:03:10</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44389.58553240741</v>
       </c>
       <c r="I573" t="n">
         <v>2</v>
@@ -41917,10 +40789,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:57</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44389.58538194445</v>
       </c>
       <c r="I574" t="n">
         <v>8</v>
@@ -41984,10 +40854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:50</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44389.58530092592</v>
       </c>
       <c r="I575" t="n">
         <v>0</v>
@@ -42054,10 +40922,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:45</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44389.58524305555</v>
       </c>
       <c r="I576" t="n">
         <v>625</v>
@@ -42129,10 +40995,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:37</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44389.58515046296</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42200,10 +41064,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:25</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44389.58501157408</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42267,10 +41129,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:21</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44389.58496527778</v>
       </c>
       <c r="I579" t="n">
         <v>2</v>
@@ -42346,10 +41206,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:16</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44389.58490740741</v>
       </c>
       <c r="I580" t="n">
         <v>22</v>
@@ -42415,10 +41273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:02:07</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44389.58480324074</v>
       </c>
       <c r="I581" t="n">
         <v>2507</v>
@@ -42482,10 +41338,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:36</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44389.58444444444</v>
       </c>
       <c r="I582" t="n">
         <v>0</v>
@@ -42557,10 +41411,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:22</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44389.58428240741</v>
       </c>
       <c r="I583" t="n">
         <v>14</v>
@@ -42624,10 +41476,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:16</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44389.58421296296</v>
       </c>
       <c r="I584" t="n">
         <v>1</v>
@@ -42687,10 +41537,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:15</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44389.58420138889</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -42762,10 +41610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:14</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44389.58418981481</v>
       </c>
       <c r="I586" t="n">
         <v>0</v>
@@ -42829,10 +41675,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:08</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44389.58412037037</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -42900,10 +41744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:01:03</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44389.5840625</v>
       </c>
       <c r="I588" t="n">
         <v>130</v>
@@ -42968,10 +41810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:59</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44389.58401620371</v>
       </c>
       <c r="I589" t="n">
         <v>1</v>
@@ -43035,10 +41875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:53</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44389.58394675926</v>
       </c>
       <c r="I590" t="n">
         <v>1</v>
@@ -43106,10 +41944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:50</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44389.58391203704</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43181,10 +42017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:45</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44389.58385416667</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43252,10 +42086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:44</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44389.58384259259</v>
       </c>
       <c r="I593" t="n">
         <v>0</v>
@@ -43331,10 +42163,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-12 14:00:38</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44389.58377314815</v>
       </c>
       <c r="I594" t="n">
         <v>0</v>
